--- a/live_test/dev.xlsx
+++ b/live_test/dev.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="40" yWindow="540" windowWidth="21160" windowHeight="17600" tabRatio="500"/>
+    <workbookView xWindow="6980" yWindow="800" windowWidth="21160" windowHeight="17600" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Local" sheetId="1" r:id="rId1"/>
+    <sheet name="Online" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="150">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -593,6 +594,166 @@
   </si>
   <si>
     <t>32401</t>
+  </si>
+  <si>
+    <t>Address</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rtmp_port</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Http_port</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BJ-OB767-RELAY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BJ-OB767-EDGE-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TJ-OB767-EDGE-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SH-OB767-EDGE-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CQ-OB767-EDGE-4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SJZ-OB767-EDGE-5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TY-OB767-EDGE-6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SY-OB767-EDGE-7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CC-OB767-EDGE-8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HEB-OB767-EDGE-9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NJ-OB767-EDGE-10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HZ-OB767-EDGE-11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HF-OB767-EDGE-12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FZ-OB767-EDGE-13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NC-OB767-EDGE-14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JN-OB767-EDGE-15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZZ-OB767-EDGE-16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WH-OB767-EDGE-17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CS-OB767-EDGE-18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GZ-OB767-EDGE-19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HK-OB767-EDGE-20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CD-OB767-EDGE-21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GY-OB767-EDGE-22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KM-OB767-EDGE-23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XA-OB767-EDGE-24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LZ-OB767-EDGE-25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>线上测试节点</t>
+    <rPh sb="0" eb="1">
+      <t>xian shang</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ce shi</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>jie dian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>62.234.86.16</t>
+  </si>
+  <si>
+    <t>62.234.86.16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1000,7 +1161,7 @@
   <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1484,4 +1645,494 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E28"/>
+  <sheetViews>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="5" width="33" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="A1" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+    </row>
+    <row r="2" spans="1:5" ht="24" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="19" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="19" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="19" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="19" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="19" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="19" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="19" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="19" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="19" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="19" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="19" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="19" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="19" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="19" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="19" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="19" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="19" x14ac:dyDescent="0.2">
+      <c r="A19" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="19" x14ac:dyDescent="0.2">
+      <c r="A20" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="19" x14ac:dyDescent="0.2">
+      <c r="A21" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="19" x14ac:dyDescent="0.2">
+      <c r="A22" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="19" x14ac:dyDescent="0.2">
+      <c r="A23" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="19" x14ac:dyDescent="0.2">
+      <c r="A24" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="19" x14ac:dyDescent="0.2">
+      <c r="A25" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="19" x14ac:dyDescent="0.2">
+      <c r="A26" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="19" x14ac:dyDescent="0.2">
+      <c r="A27" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="19" x14ac:dyDescent="0.2">
+      <c r="A28" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>